--- a/data/learning-curves/digitrecognition.xlsx
+++ b/data/learning-curves/digitrecognition.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbecker.CTCLTKBECKER\Documents\Visual Studio 2013\Projects\DigitRecognizer\data\learning-curves\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="19095" windowHeight="11010"/>
   </bookViews>
@@ -27,8 +32,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +70,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -89,18 +112,24 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1</c:v>
+            <c:v>Sigma 1</c:v>
           </c:tx>
-          <c:xVal>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
@@ -123,8 +152,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
@@ -147,15 +176,19 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>Sigma 2</c:v>
           </c:tx>
-          <c:xVal>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
@@ -178,8 +211,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$7:$F$7</c:f>
               <c:numCache>
@@ -202,15 +235,19 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>3</c:v>
+            <c:v>Sigma 3</c:v>
           </c:tx>
-          <c:xVal>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
@@ -233,8 +270,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$11:$F$11</c:f>
               <c:numCache>
@@ -257,15 +294,19 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>4</c:v>
+            <c:v>Sigma 4</c:v>
           </c:tx>
-          <c:xVal>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:numCache>
@@ -288,8 +329,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$15:$F$15</c:f>
               <c:numCache>
@@ -312,16 +353,27 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="111826432"/>
-        <c:axId val="111828352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="111826432"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="254200512"/>
+        <c:axId val="254198552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="254200512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -340,19 +392,25 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111828352"/>
+        <c:crossAx val="254198552"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="111828352"/>
+        <c:axId val="254198552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -372,13 +430,15 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111826432"/>
+        <c:crossAx val="254200512"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -390,8 +450,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -479,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +574,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,16 +785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -749,7 +814,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +854,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -812,7 +877,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -835,7 +900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -858,7 +923,7 @@
         <v>52.96</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -878,7 +943,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -898,7 +963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -918,7 +983,7 @@
         <v>91.86</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -938,7 +1003,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1023,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -978,7 +1043,7 @@
         <v>94.33</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -998,7 +1063,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1083,7 @@
         <v>99.38</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1103,7 @@
         <v>94.19</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1058,7 +1123,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1143,7 @@
         <v>98.48</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1105,24 +1170,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
